--- a/OKUBENI/tahliye-ORNEK-13-SUREC.xlsx
+++ b/OKUBENI/tahliye-ORNEK-13-SUREC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\yzhn\OKUBENI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C240F6A0-6989-4EC6-AE6F-356D53CB8680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068390FF-0B25-4E4B-99E1-0481BF4BA9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="645" windowWidth="19440" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13545" yWindow="15" windowWidth="15105" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>ORNEK 13</t>
   </si>
@@ -33,25 +33,62 @@
     <t>İcra dairesinden yollanır</t>
   </si>
   <si>
-    <t>itiraz edilmez</t>
-  </si>
-  <si>
-    <t>itiraz edilir</t>
-  </si>
-  <si>
     <t>tahliye ve alacak kesinleşir</t>
   </si>
   <si>
     <t>imza ve sözleşmeye</t>
   </si>
   <si>
-    <t>imza ve sözleşme dışında bir konuda</t>
-  </si>
-  <si>
     <t>http://tbbdergisi.barobirlik.org.tr/m2009-84-556</t>
   </si>
   <si>
     <t>talih uyar Ornek 13</t>
+  </si>
+  <si>
+    <t>7 günde itiraz edilmezse</t>
+  </si>
+  <si>
+    <t>diğer nedenlerle</t>
+  </si>
+  <si>
+    <t>kiracı olmadığını iddia etmiştir</t>
+  </si>
+  <si>
+    <t>itiraz edilirse</t>
+  </si>
+  <si>
+    <t>kira sözleşmesini kabul etmiştir. İİK m. 269/II, c:2)</t>
+  </si>
+  <si>
+    <t>sözleşme sözlü ise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icra mahkemesinde itirazın kaldırılması ve tahliye istenemez </t>
+  </si>
+  <si>
+    <t>sözleşme yazılı ise</t>
+  </si>
+  <si>
+    <t>sözleşme yazılı ve noterden ise</t>
+  </si>
+  <si>
+    <t>“Takip talebi”nde kira sözleşmesinin sözlü olduğunu bildirmiş olan alacaklı-kiralayan, icra mahkemesinde “kira sözleşmesinin yazılı olduğunu” ileri süremez.</t>
+  </si>
+  <si>
+    <t>sulh hukuk mahkemesine “kira alacağının ödenmesi ve temerrüt nedeniyle tahliye kararı verilmesini”  gidilir Kira sözleşmesini “açık ve kesin olarak” inkar eden kiracı, bu itirazı
+ile birlikte ayrıca “kira borcunu ödediğini” bildiremez (İİK m. 269b/III)</t>
+  </si>
+  <si>
+    <t>“takip talebinde” ve “ödeme emri”nde ayrıca tahliye isteminde bulunmuş olmak koşuluyla  icra mahkemesinden “itirazın kaldırılmasını” ve “kiralananın boşaltılmasını” isteyebilir.</t>
+  </si>
+  <si>
+    <t>örnek 13 te verilen 6-30-60 günlük süreyi bekle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>“İtirazın kaldırılması” istemiyle icra mahkemesine başvuruda bulunabilmek için belirli bir sürenin geçmesi gerekmediği halde, “tahliyeye karar verilmesi” istemiyle icra mahkemesine başvuruda bulunabilmek için ödeme emrinde belirtilen, 30-6-60 günlük- “ödeme süresi”nin geçmiş olması gerekir</t>
   </si>
 </sst>
 </file>
@@ -87,8 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,58 +409,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:6" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>6</v>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="270" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>